--- a/medicine/Enfance/Viviane_Koenig/Viviane_Koenig.xlsx
+++ b/medicine/Enfance/Viviane_Koenig/Viviane_Koenig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viviane Koenig, née le 29 mars 1950 à Paris, est une autrice de livres pour la jeunesse et historienne française.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parallèlement à l'obtention de son diplôme d'études approfondies (DEA) en histoire, Viviane Koenig suit des cours à l'école supérieure d'arts graphiques Penninghen. Elle enseigne l'histoire quelques années avant de partir pour l’Égypte[1]. De 1976 à 1980, elle participe aux chantiers de fouilles et assiste au travail de l'atelier de dessin de l'Institut Français d'Archéologie Orientale (IFAO), installé au Caire. De retour en France, elle commence une carrière d'autrice parallèlement à ses fonctions d'enseignante[2]. Ses publications, du conte au documentaire, ont majoritairement pour cadre l’Égypte[3]. Elle est également illustratrice[4].
-Viviane Koenig est membre de la Maison des écrivains et de la littérature (Mel)[5] et de la Charte des auteurs et des illustrateurs jeunesse[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parallèlement à l'obtention de son diplôme d'études approfondies (DEA) en histoire, Viviane Koenig suit des cours à l'école supérieure d'arts graphiques Penninghen. Elle enseigne l'histoire quelques années avant de partir pour l’Égypte. De 1976 à 1980, elle participe aux chantiers de fouilles et assiste au travail de l'atelier de dessin de l'Institut Français d'Archéologie Orientale (IFAO), installé au Caire. De retour en France, elle commence une carrière d'autrice parallèlement à ses fonctions d'enseignante. Ses publications, du conte au documentaire, ont majoritairement pour cadre l’Égypte. Elle est également illustratrice.
+Viviane Koenig est membre de la Maison des écrivains et de la littérature (Mel) et de la Charte des auteurs et des illustrateurs jeunesse.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature jeunesse
-Un village d'artisans égyptiens sous Ramsès IV, Viviane Koenig, Michel Jay, Albin Michel, 1984,  (ISBN 2226019073)
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un village d'artisans égyptiens sous Ramsès IV, Viviane Koenig, Michel Jay, Albin Michel, 1984,  (ISBN 2226019073)
 Le Livre-jeu des hiéroglyphes, Larousse, 64p, 1991,  (ISBN 2036100201)
 Dictionnaire de la mythologie égyptienne, Hachette Jeunesse, Collection : Le livre de poche, 1996,  (ISBN 2013213255)
 Arthur et les chevaliers de la table ronde, Viviane Koenig, Eddy Krähenbühl, Nathan, Collection : Monde en poche, 1999,  (ISBN 2092044613)
@@ -601,9 +620,43 @@
 Le tableau ensanglanté, Viviane Koenig, Annie Moser, Oskar, Collection : Polar, 144p, 2016,  (ISBN 9791021405271)
 La naissance de Rome : D'Enée à Romulus, Viviane Koenig, Clémence Paldacci, Casterman, Collection : La Mythologie en BD, 48p, 2016,  (ISBN 2203100982)
 Marco Polo, la grande aventure : (1269-1275), Gallimard Jeunesse, Collection : Mon Histoire, 160p, 2016,  (ISBN 2070669408)
-L'Égypte ancienne, Viviane Koenig, Dominique Joly, Marion Duclos, Éditions Belin, Collection : Bulles d'histoire, 72p, 2017,  (ISBN 2410005306)
-Traduction
-Les contes des Mille et une nuits, Laureen Topalian (illustration), La Martinière Jeunesse, Collection : Beaux Mythes, 204p, 2005,  (ISBN 2732433543)</t>
+L'Égypte ancienne, Viviane Koenig, Dominique Joly, Marion Duclos, Éditions Belin, Collection : Bulles d'histoire, 72p, 2017,  (ISBN 2410005306)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Viviane_Koenig</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viviane_Koenig</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les contes des Mille et une nuits, Laureen Topalian (illustration), La Martinière Jeunesse, Collection : Beaux Mythes, 204p, 2005,  (ISBN 2732433543)</t>
         </is>
       </c>
     </row>
